--- a/Experimental_results/results.xlsx
+++ b/Experimental_results/results.xlsx
@@ -65,7 +65,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>baseline</t>
+    <t>Baseline</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -410,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L24"/>
+  <dimension ref="B2:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -427,7 +427,7 @@
     <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
@@ -453,7 +453,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -480,7 +480,7 @@
       </c>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -506,7 +506,7 @@
         <v>352074</v>
       </c>
     </row>
-    <row r="5" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -532,7 +532,7 @@
         <v>3.5028030000000001</v>
       </c>
     </row>
-    <row r="6" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
@@ -540,7 +540,7 @@
         <v>0.65400000000000003</v>
       </c>
       <c r="D6" s="2">
-        <v>0.94599100000000003</v>
+        <v>0.79199799999999998</v>
       </c>
       <c r="E6" s="2">
         <v>0.88800000000000001</v>
@@ -552,15 +552,13 @@
         <v>2.649003</v>
       </c>
       <c r="I6" s="2">
-        <v>4.7208399999999999</v>
+        <v>2.8649749999999998</v>
       </c>
       <c r="J6" s="2">
         <v>2.782003</v>
       </c>
     </row>
-    <row r="7" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
@@ -586,7 +584,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>0</v>
       </c>
@@ -612,7 +610,7 @@
         <v>1176090</v>
       </c>
     </row>
-    <row r="11" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
@@ -638,7 +636,7 @@
         <v>1984973</v>
       </c>
     </row>
-    <row r="12" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>2</v>
       </c>
@@ -665,7 +663,7 @@
       </c>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>6</v>
       </c>
@@ -685,15 +683,13 @@
         <v>6.9489710000000002</v>
       </c>
       <c r="I13" s="2">
-        <v>9.7423070000000003</v>
+        <v>7.6156309999999996</v>
       </c>
       <c r="J13" s="2">
         <v>7.3199699999999996</v>
       </c>
     </row>
-    <row r="14" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>7</v>
       </c>
@@ -707,7 +703,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>0</v>
       </c>
@@ -721,7 +717,7 @@
         <v>129135</v>
       </c>
     </row>
-    <row r="18" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>1</v>
       </c>
@@ -735,7 +731,7 @@
         <v>99184</v>
       </c>
     </row>
-    <row r="19" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>2</v>
       </c>
@@ -749,7 +745,7 @@
         <v>1.3365199999999999</v>
       </c>
     </row>
-    <row r="20" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>6</v>
       </c>
@@ -757,17 +753,13 @@
         <v>1.09599</v>
       </c>
       <c r="D20" s="2">
-        <v>2.254019</v>
+        <v>1.622984</v>
       </c>
       <c r="E20" s="2">
         <v>1.2829900000000001</v>
       </c>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
